--- a/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches-with-defs.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches-with-defs.xlsx
@@ -503,17 +503,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Entity</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Entity</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>An Entity typically represents a tangible thing like a Person, a Communications Device, or a Location.</t>
+          <t>An Event represents an activity or incident, involving one or more participating entities, that occurred/started at a specific point in time – e.g. a meeting, or a telephone call.</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Entity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Entity</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: ies:isStateOf min 1</t>
+          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A temporal state of an Element</t>
+          <t>An Entity typically represents a tangible thing like a Person, a Communications Device, or a Location.</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Event</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>State</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
+          <t>SubClassOf: ies:isStateOf min 1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>An Event represents an activity or incident, involving one or more participating entities, that occurred/started at a specific point in time – e.g. a meeting, or a telephone call.</t>
+          <t>A temporal state of an Element</t>
         </is>
       </c>
     </row>
